--- a/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/playergains.xlsx
+++ b/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/playergains.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -477,7 +477,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"证券买入,证券卖出,基金申购,基金赎回"</formula1>
+      <formula1>"证券买入,证券卖出,基金申购,基金赎回,融券回购"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
